--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1417220.730030111</v>
+        <v>1437352.376967474</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111182</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7077773.13145662</v>
+        <v>7077773.131456619</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>14.22717944117454</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>131.8562746194806</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
     </row>
     <row r="5">
@@ -905,64 +905,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>196.9826481283071</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1026,22 +1026,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>51.12024601807693</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>188.9257796665961</v>
       </c>
     </row>
     <row r="7">
@@ -1054,73 +1054,73 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.1066023865956</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1212,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>185.6562165419322</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.4366393623639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1503,16 +1503,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>128.4562226808342</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.971439178426</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.2952677809261</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I13" t="n">
         <v>147.5019580580808</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>258.8857388536435</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>13.5690386383667</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>121.642723903186</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.5439382344022294</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1746,13 +1746,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356411</v>
+        <v>21.38816470214937</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>193.428909028942</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>278.8265697844214</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>46.89468071824626</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>200.7457815514488</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>35.7600469113845</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>69.01670059309973</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.666355695962295</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>177.1004234984391</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>51.60417444298751</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.06064116356384</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>141.6396260835082</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>84.65566922272912</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>91.96262264792178</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>179.3720598661022</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>104.1189927826353</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.9304267702664217</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>26.24406001478086</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>197.5113555684271</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>109.545252554669</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.3909561563549</v>
+        <v>120.277034860115</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>342.398952903456</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>62.98985437657991</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>19.29466642479546</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>32.90473339009669</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.88504894832686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>145.6674229028285</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>317.9232000058216</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>255.3186899444939</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531302296</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>338.0913843196641</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>232.9731543976538</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,22 +3582,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>75.3518367581916</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>14.04500123521629</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>9.637108967925821</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>28.78393973781054</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.80910967349007</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>34.94629508123426</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.298222131972213</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.76004691138451</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3977,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.0990980457142</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>103.0947768283674</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>10.4473523251091</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>30.44996741998445</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>949.6862671862175</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>721.4626489226066</v>
       </c>
       <c r="V3" t="n">
-        <v>227.0414418751666</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0414418751666</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>251.810259228364</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4595,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
         <v>417.4543050195419</v>
@@ -4674,19 +4674,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>435.6470747334852</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>435.6470747334852</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y6" t="n">
         <v>20.03527576299844</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4768,7 +4768,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>528.5815077689649</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4847,7 +4847,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4890,13 +4890,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4999,10 +4999,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1017.743579880696</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C11" t="n">
-        <v>1017.743579880696</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D11" t="n">
-        <v>1017.743579880696</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E11" t="n">
-        <v>631.9553272824514</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F11" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G11" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011319</v>
@@ -5084,7 +5084,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>1404.343419944817</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>507.0351915391004</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="C12" t="n">
-        <v>507.0351915391004</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>507.0351915391004</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
         <v>507.0351915391004</v>
@@ -5115,13 +5115,13 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
         <v>358.9399761455072</v>
@@ -5130,10 +5130,10 @@
         <v>758.3581127497703</v>
       </c>
       <c r="N12" t="n">
-        <v>1160.042269026704</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5151,19 +5151,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1173.163483952</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>938.0113757202575</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="W12" t="n">
-        <v>683.774018992056</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="X12" t="n">
-        <v>507.0351915391004</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="Y12" t="n">
-        <v>507.0351915391004</v>
+        <v>815.2070562058072</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H13" t="n">
         <v>256.8779464865154</v>
@@ -5197,10 +5197,10 @@
         <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5218,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.9600720765638</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="C14" t="n">
-        <v>293.9600720765638</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="D14" t="n">
-        <v>293.9600720765638</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="E14" t="n">
-        <v>293.9600720765638</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F14" t="n">
-        <v>293.9600720765638</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G14" t="n">
-        <v>293.9600720765638</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1609.260188352895</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1411.691588519919</v>
       </c>
       <c r="T14" t="n">
-        <v>1311.402045381201</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="U14" t="n">
-        <v>1057.565162313455</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="V14" t="n">
-        <v>1057.565162313455</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="W14" t="n">
-        <v>1057.565162313455</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="X14" t="n">
-        <v>684.0994040523756</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.9600720765638</v>
+        <v>1188.947668900687</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>709.8087082577356</v>
+        <v>207.4617876008815</v>
       </c>
       <c r="C15" t="n">
-        <v>709.8087082577356</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="D15" t="n">
-        <v>586.9372699716891</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="E15" t="n">
-        <v>427.6998149662337</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="F15" t="n">
-        <v>281.1652569931187</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="G15" t="n">
-        <v>142.7528837522889</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5382,25 +5382,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894784</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577356</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W15" t="n">
-        <v>709.8087082577356</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X15" t="n">
-        <v>709.8087082577356</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y15" t="n">
-        <v>709.8087082577356</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5461,25 +5461,25 @@
         <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1153555684087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1153555684087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D17" t="n">
-        <v>222.1153555684087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E17" t="n">
-        <v>222.1153555684087</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1153555684087</v>
+        <v>827.3380636753222</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>417.4980919612794</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
@@ -5516,7 +5516,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>222.1153555684087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X17" t="n">
-        <v>222.1153555684087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.1153555684087</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>507.0351915391004</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="C18" t="n">
-        <v>507.0351915391004</v>
+        <v>327.9282933941185</v>
       </c>
       <c r="D18" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1575.597923625744</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1575.597923625744</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>1340.445815394002</v>
       </c>
       <c r="W18" t="n">
-        <v>507.0351915391004</v>
+        <v>1086.2084586658</v>
       </c>
       <c r="X18" t="n">
-        <v>507.0351915391004</v>
+        <v>878.3569584602674</v>
       </c>
       <c r="Y18" t="n">
-        <v>507.0351915391004</v>
+        <v>670.5966596953135</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.5981367727104</v>
+        <v>68.58058526620118</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>68.58058526620118</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>68.58058526620118</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>68.58058526620118</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>68.58058526620118</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975219</v>
@@ -5692,31 +5692,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>68.58058526620118</v>
       </c>
       <c r="Y19" t="n">
-        <v>361.2466016029501</v>
+        <v>68.58058526620118</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>834.8212426942234</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C20" t="n">
-        <v>834.8212426942234</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D20" t="n">
-        <v>834.8212426942234</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E20" t="n">
-        <v>449.0329900959792</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>449.0329900959792</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>39.19301838193633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>39.19301838193633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>834.8212426942234</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>834.8212426942234</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>834.8212426942234</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>834.8212426942234</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y20" t="n">
-        <v>834.8212426942234</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>704.7131542729894</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C21" t="n">
-        <v>530.2601249918624</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D21" t="n">
-        <v>381.3257153306112</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
@@ -5832,49 +5832,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668621</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1340.665718993835</v>
+        <v>1195.177176181417</v>
       </c>
       <c r="U21" t="n">
-        <v>1340.665718993835</v>
+        <v>966.9745087188951</v>
       </c>
       <c r="V21" t="n">
-        <v>1340.665718993835</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="W21" t="n">
-        <v>1288.540290263544</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="X21" t="n">
-        <v>1080.688790058011</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y21" t="n">
-        <v>872.9284912930575</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>503.7583553506521</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="C23" t="n">
-        <v>503.7583553506521</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="D23" t="n">
-        <v>503.7583553506521</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="E23" t="n">
-        <v>117.9701027524079</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="F23" t="n">
-        <v>117.9701027524079</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="G23" t="n">
-        <v>117.9701027524079</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>117.9701027524079</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6002,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V23" t="n">
-        <v>503.7583553506521</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W23" t="n">
-        <v>503.7583553506521</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X23" t="n">
-        <v>503.7583553506521</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="Y23" t="n">
-        <v>503.7583553506521</v>
+        <v>175.5296551370332</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>784.9017952688528</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C24" t="n">
-        <v>610.4487659877258</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D24" t="n">
-        <v>461.5143563264745</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E24" t="n">
-        <v>461.5143563264745</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="F24" t="n">
-        <v>314.9797983533595</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026703</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6090,28 +6090,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V24" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W24" t="n">
-        <v>1368.728931259408</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X24" t="n">
-        <v>1160.877431053875</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y24" t="n">
-        <v>953.1171322889209</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>287.1438139656391</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>623.4831963284437</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>623.4831963284437</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D26" t="n">
-        <v>623.4831963284437</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E26" t="n">
-        <v>623.4831963284437</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F26" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975219</v>
@@ -6233,7 +6233,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6254,22 +6254,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="V26" t="n">
-        <v>1400.222368368377</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W26" t="n">
-        <v>1400.222368368377</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X26" t="n">
-        <v>1400.222368368377</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y26" t="n">
-        <v>1010.083036392565</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>515.0842197075859</v>
+        <v>911.2645339345386</v>
       </c>
       <c r="C27" t="n">
-        <v>340.6311904264589</v>
+        <v>736.8115046534116</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>587.8770949921603</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975219</v>
+        <v>428.6396399867048</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>282.1050820135898</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>143.6927087727601</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>33.39915078022332</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O27" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6330,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894784</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577356</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W27" t="n">
-        <v>683.2995567276539</v>
+        <v>1287.331371160139</v>
       </c>
       <c r="X27" t="n">
-        <v>683.2995567276539</v>
+        <v>1079.479870954607</v>
       </c>
       <c r="Y27" t="n">
-        <v>683.2995567276539</v>
+        <v>1079.479870954607</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.5981367727104</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C28" t="n">
-        <v>179.5981367727104</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>617.7539981240844</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C29" t="n">
-        <v>617.7539981240844</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D29" t="n">
-        <v>617.7539981240844</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>231.9657455258402</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
-        <v>231.9657455258402</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
-        <v>231.9657455258402</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975219</v>
@@ -6485,28 +6485,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1425.397688154633</v>
+        <v>1398.318874956936</v>
       </c>
       <c r="T29" t="n">
-        <v>1202.653768535401</v>
+        <v>1398.318874956936</v>
       </c>
       <c r="U29" t="n">
-        <v>948.8168854676551</v>
+        <v>1144.48199188919</v>
       </c>
       <c r="V29" t="n">
-        <v>617.7539981240844</v>
+        <v>1144.48199188919</v>
       </c>
       <c r="W29" t="n">
-        <v>617.7539981240844</v>
+        <v>791.7133366190762</v>
       </c>
       <c r="X29" t="n">
-        <v>617.7539981240844</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="Y29" t="n">
-        <v>617.7539981240844</v>
+        <v>418.2475783579964</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>181.3937354210034</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>181.3937354210034</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D30" t="n">
         <v>32.45932575975219</v>
@@ -6543,19 +6543,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456784</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.293373622612</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O30" t="n">
-        <v>1454.30688079717</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P30" t="n">
         <v>1622.966287987609</v>
@@ -6567,25 +6567,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1515.500675708463</v>
+        <v>1501.474333583453</v>
       </c>
       <c r="T30" t="n">
-        <v>1314.597666813956</v>
+        <v>1300.571324688946</v>
       </c>
       <c r="U30" t="n">
-        <v>1086.394999351435</v>
+        <v>1072.368657226424</v>
       </c>
       <c r="V30" t="n">
-        <v>851.2428911196919</v>
+        <v>837.2165489946817</v>
       </c>
       <c r="W30" t="n">
-        <v>597.0055343914902</v>
+        <v>582.9791922664801</v>
       </c>
       <c r="X30" t="n">
-        <v>389.1540341859574</v>
+        <v>375.1276920609473</v>
       </c>
       <c r="Y30" t="n">
-        <v>181.3937354210034</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1402.173708844079</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>1402.173708844079</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>1402.173708844079</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>968.7637269953007</v>
+        <v>1122.370805150056</v>
       </c>
       <c r="C32" t="n">
-        <v>968.7637269953007</v>
+        <v>1122.370805150056</v>
       </c>
       <c r="D32" t="n">
-        <v>968.7637269953007</v>
+        <v>764.1051065433055</v>
       </c>
       <c r="E32" t="n">
-        <v>968.7637269953007</v>
+        <v>378.3168539450613</v>
       </c>
       <c r="F32" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
@@ -6725,25 +6725,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1445.344529682279</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T32" t="n">
-        <v>1222.600610063047</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U32" t="n">
-        <v>968.7637269953007</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V32" t="n">
-        <v>968.7637269953007</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W32" t="n">
-        <v>968.7637269953007</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X32" t="n">
-        <v>968.7637269953007</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y32" t="n">
-        <v>968.7637269953007</v>
+        <v>1508.970645214178</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>549.7496870371103</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>549.7496870371103</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>400.8152773758591</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>241.5778223704036</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>241.5778223704036</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
@@ -6780,49 +6780,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>905.3665017627701</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U33" t="n">
-        <v>1622.966287987609</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V33" t="n">
-        <v>1387.814179755867</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W33" t="n">
-        <v>1133.576823027665</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X33" t="n">
-        <v>925.7253228221323</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y33" t="n">
-        <v>717.9650240571784</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.77755702068842</v>
+        <v>1475.827476974651</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>880.0583007416838</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="C35" t="n">
-        <v>880.0583007416838</v>
+        <v>700.1969640843949</v>
       </c>
       <c r="D35" t="n">
-        <v>880.0583007416838</v>
+        <v>700.1969640843949</v>
       </c>
       <c r="E35" t="n">
-        <v>880.0583007416838</v>
+        <v>700.1969640843949</v>
       </c>
       <c r="F35" t="n">
-        <v>880.0583007416838</v>
+        <v>700.1969640843949</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812579</v>
+        <v>290.3569923703521</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6938,49 +6938,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.96628798761</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.197632717495</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.197632717495</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="Y35" t="n">
-        <v>880.0583007416838</v>
+        <v>1069.159481024807</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975219</v>
@@ -7014,28 +7014,28 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>91.88297124942903</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>389.6147262310922</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>789.0328628353552</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N36" t="n">
-        <v>1190.717019112289</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1513.730526286847</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
         <v>1541.568727888341</v>
@@ -7047,19 +7047,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894786</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577358</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295342</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240014</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904744</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975219</v>
@@ -7129,16 +7129,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W37" t="n">
-        <v>71.82943156598952</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>732.2314731742442</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7172,16 +7172,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1508.970645214178</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>1508.970645214178</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>1508.970645214178</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="W38" t="n">
-        <v>1508.970645214178</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="X38" t="n">
-        <v>1508.970645214178</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="Y38" t="n">
-        <v>1118.831313238366</v>
+        <v>1164.895949784888</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>125.9815722671808</v>
+        <v>757.6011872426432</v>
       </c>
       <c r="C39" t="n">
-        <v>125.9815722671808</v>
+        <v>583.1481579615162</v>
       </c>
       <c r="D39" t="n">
-        <v>125.9815722671808</v>
+        <v>583.1481579615162</v>
       </c>
       <c r="E39" t="n">
-        <v>125.9815722671808</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>125.9815722671808</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>125.9815722671808</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
         <v>111.7947023326189</v>
@@ -7257,46 +7257,46 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577356</v>
+        <v>1387.814179755867</v>
       </c>
       <c r="W39" t="n">
-        <v>709.8087082577356</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9572080522028</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="Y39" t="n">
-        <v>294.1969092872488</v>
+        <v>925.8165242627113</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1463.599890474927</v>
+        <v>1613.231834484654</v>
       </c>
       <c r="C40" t="n">
-        <v>1463.599890474927</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="D40" t="n">
-        <v>1463.599890474927</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E40" t="n">
-        <v>1463.599890474927</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F40" t="n">
-        <v>1463.599890474927</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G40" t="n">
         <v>1294.179012144411</v>
@@ -7360,22 +7360,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>1463.599890474927</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>1463.599890474927</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>1463.599890474927</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>1463.599890474927</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>1463.599890474927</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>1463.599890474927</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>61.53401236360122</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C41" t="n">
-        <v>61.53401236360122</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D41" t="n">
-        <v>61.53401236360122</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E41" t="n">
-        <v>61.53401236360122</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F41" t="n">
-        <v>61.53401236360122</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G41" t="n">
-        <v>61.53401236360122</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>61.53401236360122</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7412,13 +7412,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214178</v>
+        <v>1569.623752963882</v>
       </c>
       <c r="T41" t="n">
-        <v>1508.970645214178</v>
+        <v>1569.623752963882</v>
       </c>
       <c r="U41" t="n">
-        <v>1508.970645214178</v>
+        <v>1315.786869896136</v>
       </c>
       <c r="V41" t="n">
-        <v>1177.907757870607</v>
+        <v>984.7239825525655</v>
       </c>
       <c r="W41" t="n">
-        <v>825.1391026004928</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="X41" t="n">
-        <v>451.6733443394129</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="Y41" t="n">
-        <v>61.53401236360122</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>694.1911178525678</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="C42" t="n">
-        <v>519.7380885714408</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="D42" t="n">
-        <v>519.7380885714408</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="E42" t="n">
-        <v>360.5006335659854</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7494,46 +7494,46 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270843</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313473</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1619.634750480567</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1619.634750480567</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1619.634750480567</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1391.432083018045</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V42" t="n">
-        <v>1156.279974786302</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W42" t="n">
-        <v>902.0426180581006</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X42" t="n">
-        <v>694.1911178525678</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y42" t="n">
-        <v>694.1911178525678</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R43" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S43" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>260.4488766577695</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U43" t="n">
-        <v>260.4488766577695</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>260.4488766577695</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W43" t="n">
-        <v>260.4488766577695</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975219</v>
+        <v>1514.971591287941</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.1153555684087</v>
+        <v>1035.258356178821</v>
       </c>
       <c r="C44" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7673,25 +7673,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U44" t="n">
-        <v>1296.086230157905</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V44" t="n">
-        <v>965.0233428143345</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W44" t="n">
-        <v>612.2546875442204</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X44" t="n">
-        <v>612.2546875442204</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.1153555684087</v>
+        <v>1035.258356178821</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>676.8255276810298</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C45" t="n">
-        <v>676.8255276810298</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D45" t="n">
         <v>666.272646544556</v>
@@ -7731,46 +7731,46 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V45" t="n">
-        <v>1138.914384614764</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W45" t="n">
-        <v>884.6770278865627</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X45" t="n">
-        <v>676.8255276810298</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y45" t="n">
-        <v>676.8255276810298</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>330.489058754481</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
         <v>32.45932575975219</v>
@@ -7837,19 +7837,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5148970497678</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8781,10 +8781,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>290.4954127942447</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q12" t="n">
         <v>99.73813450275541</v>
@@ -9009,13 +9009,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878805</v>
       </c>
       <c r="M15" t="n">
-        <v>362.3381572675153</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>86.93262649026374</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>380.7598033349565</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942447</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1879045256802</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026374</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574522</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275541</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026374</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>281.0382923213829</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10200,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>447.9178485742655</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>244.1351504444136</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275541</v>
@@ -10428,7 +10428,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>92.88803957954781</v>
+        <v>380.7598033349565</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>117.9172225363092</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831322</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,13 +10905,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7205150479947</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711644</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,7 +11142,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>186.1735738748418</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.8012992936897</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23340,10 +23340,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23391,16 +23391,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>104.3443644685911</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>30.80154602505149</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,7 +23431,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5819502228691</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>74.55457686207706</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>99.28664770733076</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.80234166145279</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>77.99808457273581</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23634,13 +23634,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23674,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>198.022234169704</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>140.0114066867786</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>70.41439893299162</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23823,13 +23823,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>151.9992980873154</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>50.9492016094708</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>21.5793981957992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>131.9666226358259</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>296.2561911779078</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>181.0931138146076</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,10 +24063,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>21.79355530712252</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>200.0908087179321</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24148,7 +24148,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082895</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.9015159566401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>273.0738780470257</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1038002878408</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>45.06562686049968</v>
+        <v>129.6030249771194</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>227.5039858756092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24494,7 +24494,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>116.3974876404045</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>77.61159603687162</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>225.4509231461387</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>2.948050115383722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24695,7 +24695,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>135.9289601472935</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>86.04766127997753</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24807,7 +24807,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>59.43625653506082</v>
+        <v>45.55017783130077</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.70072328554139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,7 +24886,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24895,7 +24895,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>146.0486391109154</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>64.47709283825543</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24965,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.6030594580666</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24996,25 +24996,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>117.733583083626</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>165.9892454154649</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.9469312336104</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>72.91723044926633</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>96.79030412471229</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>78.12162577122666</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25205,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.107959118565</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25248,7 +25248,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>101.7653978813093</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25327,7 +25327,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>120.9008132556202</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25369,13 +25369,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>152.3478956280992</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>27.18150745134346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>94.77910407248109</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,22 +25470,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>82.29324369720935</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>95.14562117739507</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>170.1948712140115</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25600,7 +25600,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>69.04353215175573</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>158.9755297727594</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>142.7838041611565</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,16 +25713,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>74.24432733137709</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.2853623663033</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25837,7 +25837,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>191.0562187779268</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25865,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>160.1737937252933</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25883,7 +25883,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>148.203737408701</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>136.9977132395296</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -26001,16 +26001,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>202.7107073159004</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>136.7968536786434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,10 +26077,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>504159.9265988229</v>
+        <v>504159.9265988228</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>504159.9265988229</v>
+        <v>504159.9265988225</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>504159.9265988225</v>
+        <v>504159.9265988223</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>504159.9265988229</v>
+        <v>504159.9265988225</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>504159.9265988228</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>504159.9265988228</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504159.9265988226</v>
+        <v>504159.9265988225</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>504159.9265988229</v>
+        <v>504159.9265988225</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
@@ -26323,16 +26323,16 @@
         <v>277717.5661839885</v>
       </c>
       <c r="F2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="G2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="H2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="I2" t="n">
         <v>277717.5661839886</v>
-      </c>
-      <c r="G2" t="n">
-        <v>277717.5661839886</v>
-      </c>
-      <c r="H2" t="n">
-        <v>277717.5661839886</v>
-      </c>
-      <c r="I2" t="n">
-        <v>277717.5661839885</v>
       </c>
       <c r="J2" t="n">
         <v>277717.5661839885</v>
@@ -26341,16 +26341,16 @@
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
+        <v>277717.5661839886</v>
+      </c>
+      <c r="M2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="M2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="N2" t="n">
         <v>277717.5661839886</v>
       </c>
       <c r="O2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839885</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>314967.8580094806</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="F4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="G4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="H4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="I4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="J4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="K4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="L4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="N4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="O4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="P4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89658.59210699424</v>
+        <v>92031.07569775783</v>
       </c>
       <c r="C6" t="n">
-        <v>170428.0236385421</v>
+        <v>172800.5072293053</v>
       </c>
       <c r="D6" t="n">
-        <v>170428.0236385418</v>
+        <v>172800.5072293053</v>
       </c>
       <c r="E6" t="n">
-        <v>46008.20149428376</v>
+        <v>48430.73138524755</v>
       </c>
       <c r="F6" t="n">
-        <v>212948.3716195306</v>
+        <v>215370.9015104943</v>
       </c>
       <c r="G6" t="n">
-        <v>212948.3716195306</v>
+        <v>215370.9015104942</v>
       </c>
       <c r="H6" t="n">
-        <v>212948.3716195306</v>
+        <v>215370.9015104942</v>
       </c>
       <c r="I6" t="n">
-        <v>212948.3716195305</v>
+        <v>215370.9015104944</v>
       </c>
       <c r="J6" t="n">
-        <v>149888.4290204242</v>
+        <v>152310.9589113881</v>
       </c>
       <c r="K6" t="n">
-        <v>212948.3716195305</v>
+        <v>215370.9015104943</v>
       </c>
       <c r="L6" t="n">
-        <v>212948.3716195305</v>
+        <v>215370.9015104944</v>
       </c>
       <c r="M6" t="n">
-        <v>171897.6737570826</v>
+        <v>174320.2036480464</v>
       </c>
       <c r="N6" t="n">
-        <v>212948.3716195306</v>
+        <v>215370.9015104944</v>
       </c>
       <c r="O6" t="n">
-        <v>212948.3716195305</v>
+        <v>215370.9015104942</v>
       </c>
       <c r="P6" t="n">
-        <v>212948.3716195304</v>
+        <v>215370.9015104943</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26805,7 +26805,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
@@ -26820,7 +26820,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="M4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.7087999633573</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>185.9375492536471</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>107.6671775926096</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G5" t="n">
-        <v>185.0989125581653</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>174.8211360628979</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.75691611070829</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.627239276885</v>
+        <v>177.3245017617499</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>125.9137940316683</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>66.03876661898741</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32485,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32503,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32622,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,7 +34787,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>222.9093633908061</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054582</v>
       </c>
       <c r="M15" t="n">
-        <v>300.0857567541446</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35744,7 +35744,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>331.4139538013791</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908061</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36209,13 +36209,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>124.8420549921029</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36291,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.323749279139</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366293</v>
+        <v>218.7858918080123</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36689,10 +36689,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36920,13 +36920,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>398.5719990406881</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37157,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>43.54219004597043</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37166,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>30.98459604604544</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37394,13 +37394,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144174</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37640,7 +37640,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726429</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>116.0723750175072</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37874,10 +37874,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38111,10 +38111,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>141.323749279139</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1437352.376967474</v>
+        <v>1453997.496271163</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111182</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7077773.131456619</v>
+        <v>7077773.131456618</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,61 +670,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>42.45964176806559</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>14.22717944117454</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>186.9919489137622</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>196.9826481283071</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.58648910053842</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.9257796665961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.4093399017307</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>57.01682479830529</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>185.6562165419322</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>47.74806282379132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>135.6738898180063</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>128.4562226808342</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652704</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.06064116356414</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>279.3758708146996</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.5690386383667</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5439382344022294</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>87.3028380711265</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>21.38816470214937</v>
+        <v>96.06064116356406</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>193.428909028942</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,16 +1925,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>39.7860196869964</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>46.89468071824626</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.7600469113845</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>69.01670059309973</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>360.9944071154071</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>177.1004234984391</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2220,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>68.03870791522255</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.06064116356384</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>83.13152374633741</v>
       </c>
       <c r="G23" t="n">
-        <v>141.6396260835082</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.42522453130207</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>104.1189927826353</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>327.5015341693394</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9304267702664217</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>81.1275227326783</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>109.545252554669</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>207.2296951654248</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.277034860115</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>146.9548048957573</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18.12022702288998</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>342.398952903456</v>
+        <v>291.6271095602793</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>32.90473339009669</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>68.73766988481034</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>289.7197420194591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>255.3186899444939</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3345,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>81.63050380724412</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>7.42522453130207</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>232.9731543976538</v>
+        <v>160.9432843732984</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>75.3518367581916</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>32.90473339009647</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.637108967925821</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>18.12022702288998</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.80910967349007</v>
+        <v>141.6396260835078</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3822,19 +3824,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>34.94629508123426</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>8.346463858805309</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.0990980457142</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.4776504855727</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>87.3028380711265</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>921.1686284721861</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>747.751283922855</v>
       </c>
       <c r="T3" t="n">
-        <v>949.6862671862175</v>
+        <v>545.5646892816211</v>
       </c>
       <c r="U3" t="n">
-        <v>721.4626489226066</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="V3" t="n">
-        <v>486.3105406908639</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="W3" t="n">
-        <v>486.3105406908639</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X3" t="n">
-        <v>486.3105406908639</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y3" t="n">
-        <v>278.55024192591</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4522,16 +4524,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="F5" t="n">
         <v>34.73845373156126</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>279.865144001321</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>279.865144001321</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>120.6276889958655</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>120.6276889958655</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>120.6276889958655</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4653,7 +4655,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4683,13 +4685,13 @@
         <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>210.869396638348</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X6" t="n">
-        <v>210.869396638348</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>756.5729737917163</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>513.1241971476163</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="D8" t="n">
-        <v>269.6754205035162</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="D9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>245.0892324518013</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.966287987609</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.966287987609</v>
+        <v>527.769357516004</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.735921498931</v>
+        <v>169.5036589092535</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.947668900687</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F11" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>896.7318744564157</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>1160.042269026703</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O12" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
         <v>1541.568727888341</v>
@@ -5151,19 +5153,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V12" t="n">
-        <v>815.2070562058072</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W12" t="n">
-        <v>815.2070562058072</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X12" t="n">
-        <v>815.2070562058072</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y12" t="n">
-        <v>815.2070562058072</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1188.947668900687</v>
+        <v>314.6571750675296</v>
       </c>
       <c r="C14" t="n">
-        <v>1188.947668900687</v>
+        <v>314.6571750675296</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.947668900687</v>
+        <v>314.6571750675296</v>
       </c>
       <c r="E14" t="n">
-        <v>1188.947668900687</v>
+        <v>314.6571750675296</v>
       </c>
       <c r="F14" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G14" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1609.260188352895</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1411.691588519919</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1188.947668900687</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1188.947668900687</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V14" t="n">
-        <v>1188.947668900687</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="W14" t="n">
-        <v>1188.947668900687</v>
+        <v>704.7965070433413</v>
       </c>
       <c r="X14" t="n">
-        <v>1188.947668900687</v>
+        <v>704.7965070433413</v>
       </c>
       <c r="Y14" t="n">
-        <v>1188.947668900687</v>
+        <v>314.6571750675296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>207.4617876008815</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C15" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D15" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E15" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F15" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270844</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T15" t="n">
-        <v>1340.665718993834</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U15" t="n">
-        <v>1112.463051531312</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V15" t="n">
-        <v>877.3109432995698</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W15" t="n">
-        <v>623.0735865713682</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X15" t="n">
-        <v>415.2220863658354</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y15" t="n">
-        <v>207.4617876008815</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5458,28 +5460,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>1237.178035389365</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>827.3380636753222</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612794</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>502.3813226752455</v>
+        <v>72.64722443348592</v>
       </c>
       <c r="C18" t="n">
-        <v>327.9282933941185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D18" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E18" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026704</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1575.597923625744</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U18" t="n">
-        <v>1575.597923625744</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V18" t="n">
-        <v>1340.445815394002</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W18" t="n">
-        <v>1086.2084586658</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="X18" t="n">
-        <v>878.3569584602674</v>
+        <v>448.6228602185079</v>
       </c>
       <c r="Y18" t="n">
-        <v>670.5966596953135</v>
+        <v>240.862561453554</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5692,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>846.2271159476759</v>
+        <v>766.0626579682519</v>
       </c>
       <c r="C20" t="n">
-        <v>776.5132769647469</v>
+        <v>397.1001410278402</v>
       </c>
       <c r="D20" t="n">
-        <v>418.2475783579964</v>
+        <v>397.1001410278402</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>397.1001410278402</v>
       </c>
       <c r="F20" t="n">
         <v>32.45932575975219</v>
@@ -5753,7 +5755,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>1156.201989944064</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.966287987609</v>
+        <v>1156.201989944064</v>
       </c>
       <c r="Y20" t="n">
-        <v>1232.826956011798</v>
+        <v>766.0626579682519</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>355.8467647021305</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="C21" t="n">
-        <v>181.3937354210034</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
         <v>32.45932575975219</v>
@@ -5832,19 +5834,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026704</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5859,22 +5861,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1195.177176181417</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>966.9745087188951</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V21" t="n">
-        <v>731.8224004871524</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W21" t="n">
-        <v>731.8224004871524</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X21" t="n">
-        <v>731.8224004871524</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y21" t="n">
-        <v>524.0621017221986</v>
+        <v>178.9938837328672</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049328</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="C23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="D23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="E23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="F23" t="n">
-        <v>175.5296551370332</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644039</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>939.1347453739247</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X23" t="n">
-        <v>565.6689871128449</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886693</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.30688079717</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6099,19 +6101,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894784</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577356</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W24" t="n">
-        <v>455.571351529534</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X24" t="n">
-        <v>247.7198513240011</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.95955255904721</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144412</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
         <v>1302.533129726572</v>
@@ -6184,13 +6186,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.549117950649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="26">
@@ -6227,49 +6229,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T26" t="n">
-        <v>1517.79558820717</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U26" t="n">
-        <v>1517.79558820717</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V26" t="n">
-        <v>1517.79558820717</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W26" t="n">
-        <v>1165.026932937056</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X26" t="n">
-        <v>791.5611746759756</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.4218427001639</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>911.2645339345386</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
-        <v>736.8115046534116</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D27" t="n">
-        <v>587.8770949921603</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E27" t="n">
-        <v>428.6396399867048</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
-        <v>282.1050820135898</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G27" t="n">
-        <v>143.6927087727601</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>33.39915078022332</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313475</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082808</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>1287.331371160139</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>1079.479870954607</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>1079.479870954607</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W28" t="n">
-        <v>1333.549117950649</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6488,19 +6490,19 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1398.318874956936</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1398.318874956936</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U29" t="n">
-        <v>1144.48199188919</v>
+        <v>1102.079120971681</v>
       </c>
       <c r="V29" t="n">
-        <v>1144.48199188919</v>
+        <v>771.0162336281105</v>
       </c>
       <c r="W29" t="n">
-        <v>791.7133366190762</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="X29" t="n">
         <v>418.2475783579964</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L30" t="n">
-        <v>505.9483651585071</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M30" t="n">
-        <v>905.3665017627701</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N30" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1501.474333583453</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T30" t="n">
-        <v>1300.571324688946</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U30" t="n">
-        <v>1072.368657226424</v>
+        <v>1273.624082228702</v>
       </c>
       <c r="V30" t="n">
-        <v>837.2165489946817</v>
+        <v>1038.471973996959</v>
       </c>
       <c r="W30" t="n">
-        <v>582.9791922664801</v>
+        <v>784.2346172687573</v>
       </c>
       <c r="X30" t="n">
-        <v>375.1276920609473</v>
+        <v>576.3831170632245</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609473</v>
+        <v>368.6228182982707</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1461.474148589837</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1312.482271763492</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S31" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T31" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U31" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433055</v>
+        <v>327.0321636994283</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3168539450613</v>
+        <v>327.0321636994283</v>
       </c>
       <c r="F32" t="n">
         <v>32.45932575975219</v>
@@ -6722,28 +6724,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214178</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214178</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
         <v>32.45932575975219</v>
@@ -6777,16 +6779,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N33" t="n">
         <v>1057.709031609044</v>
@@ -6795,34 +6797,34 @@
         <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1508.3316234539</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U33" t="n">
-        <v>1280.128955991378</v>
+        <v>1185.129054268632</v>
       </c>
       <c r="V33" t="n">
-        <v>1044.976847759636</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="W33" t="n">
-        <v>790.739491031434</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X33" t="n">
-        <v>582.8879908259012</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.1276920609473</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1475.827476974651</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6916,19 @@
         <v>1069.159481024807</v>
       </c>
       <c r="C35" t="n">
-        <v>700.1969640843949</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D35" t="n">
-        <v>700.1969640843949</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E35" t="n">
-        <v>700.1969640843949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F35" t="n">
-        <v>700.1969640843949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>290.3569923703521</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
         <v>32.45932575975219</v>
@@ -6944,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.95955255904721</v>
+        <v>897.6621105565589</v>
       </c>
       <c r="C36" t="n">
-        <v>39.95955255904721</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>39.95955255904721</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>39.95955255904721</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>39.95955255904721</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>39.95955255904721</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7043,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240011</v>
+        <v>897.6621105565589</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904721</v>
+        <v>897.6621105565589</v>
       </c>
     </row>
     <row r="37">
@@ -7129,16 +7131,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941457</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U38" t="n">
-        <v>1400.222368368377</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V38" t="n">
-        <v>1164.895949784888</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W38" t="n">
-        <v>1164.895949784888</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X38" t="n">
-        <v>1164.895949784888</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>757.6011872426432</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>583.1481579615162</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D39" t="n">
-        <v>583.1481579615162</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>147.3709770270843</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313473</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N39" t="n">
         <v>948.4732699082806</v>
@@ -7275,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.966287987609</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V39" t="n">
-        <v>1387.814179755867</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W39" t="n">
-        <v>1133.576823027665</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X39" t="n">
-        <v>1133.576823027665</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y39" t="n">
-        <v>925.8165242627113</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1613.231834484654</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>1444.295651556747</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>1461.474148589836</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>1312.482271763492</v>
       </c>
       <c r="J40" t="n">
         <v>1294.179012144411</v>
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K41" t="n">
         <v>247.3580469011316</v>
@@ -7436,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1569.623752963882</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="T41" t="n">
-        <v>1569.623752963882</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="U41" t="n">
-        <v>1315.786869896136</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V41" t="n">
-        <v>984.7239825525655</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W41" t="n">
-        <v>631.9553272824514</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X41" t="n">
-        <v>631.9553272824514</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>321.5470195745886</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>147.0939902934616</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>147.0939902934616</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>147.0939902934616</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>147.0939902934616</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>147.0939902934616</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7488,52 +7490,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O42" t="n">
-        <v>1454.30688079717</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.763620525088</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.611512293345</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W42" t="n">
-        <v>905.3741555651434</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X42" t="n">
-        <v>697.5226553596106</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y42" t="n">
-        <v>489.7623565946566</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1514.971591287941</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1035.258356178821</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F44" t="n">
         <v>32.45932575975219</v>
@@ -7646,16 +7648,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="V44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="W44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="X44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="Y44" t="n">
-        <v>1035.258356178821</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7728,22 +7730,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270843</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7752,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U45" t="n">
-        <v>1622.966287987609</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V45" t="n">
-        <v>1622.966287987609</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W45" t="n">
-        <v>1573.487221477489</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975219</v>
@@ -7837,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P12" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>157.1342855878805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452004</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9257,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>290.4954127942447</v>
+        <v>319.5347010812061</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,10 +9494,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719297</v>
       </c>
       <c r="P21" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275541</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026374</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>244.1351504444136</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026374</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>281.0382923213829</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574524</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344215</v>
       </c>
       <c r="N30" t="n">
-        <v>447.9178485742655</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>380.7598033349565</v>
+        <v>174.1879045256803</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>89.94082829865957</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.7959972113199</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10907,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344213</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026374</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>244.1351504444136</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>429.4962025068241</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>306.9349787968916</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>246.2564802542555</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>159.107959118565</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23394,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>104.3443644685911</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852481</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23504,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>127.5001749270118</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>99.28664770733076</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23592,7 +23594,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>77.99808457273581</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>78.52437462028925</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>198.022234169704</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>140.0114066867786</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,16 +23813,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.9224793013194</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>151.9992980873154</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>131.9666226358259</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23941,10 +23943,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>296.2561911779078</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>45.88163862630438</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
@@ -24099,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>21.79355530712252</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>137.6439878620818</v>
       </c>
     </row>
     <row r="22">
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.63130032720245</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3497577082895</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>323.744521995374</v>
       </c>
       <c r="G23" t="n">
-        <v>273.0738780470257</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>159.1079591185655</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>129.6030249771194</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>2.104484466239654</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>116.3974876404045</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>42.22956650912965</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>77.61159603687162</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873745</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,19 +24654,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>86.04766127997753</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>44.06881907164356</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>45.55017783130077</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>78.9658358921393</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24853,13 +24855,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141476</v>
+        <v>56.55224943852478</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24895,7 +24897,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>146.0486391109154</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>64.47709283825543</v>
+        <v>115.2489361814321</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24971,13 +24973,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>165.9892454154649</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>157.1829709030862</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.91723044926633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>75.5531497515484</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>78.12162577122666</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25233,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>91.07799518107161</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>101.7653978813093</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25369,16 +25371,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>152.3478956280992</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.91723044926616</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>94.77910407248109</v>
+        <v>166.8089740968365</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>82.29324369720935</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>165.9892454154652</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1948712140115</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,13 +25566,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>56.55224943852478</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>142.7838041611565</v>
+        <v>53.95328775113876</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25710,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>74.24432733137709</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>197.4265213446722</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25801,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>118.794905656366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>160.1737937252933</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>26.37803586012474</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,19 +25994,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>78.52437462028925</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990354</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26077,13 +26079,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>504159.9265988228</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>504159.9265988228</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>504159.9265988225</v>
+        <v>504159.9265988226</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>504159.9265988228</v>
+        <v>504159.9265988225</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>504159.9265988223</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>504159.9265988225</v>
+        <v>504159.9265988226</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>504159.9265988226</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>504159.9265988229</v>
+        <v>504159.9265988228</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>504159.9265988225</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504159.9265988225</v>
+        <v>504159.9265988229</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839885</v>
@@ -26332,7 +26334,7 @@
         <v>277717.5661839884</v>
       </c>
       <c r="I2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="J2" t="n">
         <v>277717.5661839885</v>
@@ -26344,16 +26346,16 @@
         <v>277717.5661839886</v>
       </c>
       <c r="M2" t="n">
+        <v>277717.5661839886</v>
+      </c>
+      <c r="N2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="N2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="O2" t="n">
         <v>277717.5661839884</v>
       </c>
       <c r="P2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
         <v>34482.31175973667</v>
       </c>
       <c r="H4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
         <v>34482.31175973668</v>
@@ -26448,16 +26450,16 @@
         <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
         <v>34482.31175973667</v>
       </c>
       <c r="P4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375758</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="G5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27864.35291375756</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26503,7 +26505,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375757</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92031.07569775783</v>
+        <v>92031.07569775765</v>
       </c>
       <c r="C6" t="n">
-        <v>172800.5072293053</v>
+        <v>172800.5072293054</v>
       </c>
       <c r="D6" t="n">
-        <v>172800.5072293053</v>
+        <v>172800.5072293054</v>
       </c>
       <c r="E6" t="n">
-        <v>48430.73138524755</v>
+        <v>48430.73138524753</v>
       </c>
       <c r="F6" t="n">
-        <v>215370.9015104943</v>
+        <v>215370.9015104942</v>
       </c>
       <c r="G6" t="n">
         <v>215370.9015104942</v>
@@ -26540,28 +26542,28 @@
         <v>215370.9015104942</v>
       </c>
       <c r="I6" t="n">
-        <v>215370.9015104944</v>
+        <v>215370.9015104943</v>
       </c>
       <c r="J6" t="n">
-        <v>152310.9589113881</v>
+        <v>152310.9589113879</v>
       </c>
       <c r="K6" t="n">
+        <v>215370.9015104942</v>
+      </c>
+      <c r="L6" t="n">
         <v>215370.9015104943</v>
-      </c>
-      <c r="L6" t="n">
-        <v>215370.9015104944</v>
       </c>
       <c r="M6" t="n">
         <v>174320.2036480464</v>
       </c>
       <c r="N6" t="n">
-        <v>215370.9015104944</v>
+        <v>215370.9015104943</v>
       </c>
       <c r="O6" t="n">
         <v>215370.9015104942</v>
       </c>
       <c r="P6" t="n">
-        <v>215370.9015104943</v>
+        <v>215370.9015104942</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
@@ -26771,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26796,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26811,13 +26813,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>185.1569885989568</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27479,7 +27481,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>57.69819238457755</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>185.9375492536471</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>107.6671775926096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>194.9384211584996</v>
       </c>
       <c r="F5" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>12.64895513595805</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27755,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.75691611070829</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.3245017617499</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>185.1569885989569</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27935,7 +27937,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>90.42824076633346</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>66.03876661898741</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
@@ -31774,16 +31776,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
@@ -31792,7 +31794,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31834,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,40 +31913,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O13" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35021,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35498,13 +35500,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P12" t="n">
-        <v>141.323749279139</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
@@ -35580,10 +35582,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>87.03308673054582</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>122.5531462318298</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35744,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>222.9093633908061</v>
+        <v>251.9486516777676</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36212,10 +36214,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849116</v>
       </c>
       <c r="P21" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>170.3630375661004</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>218.7858918080123</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>141.3237492791392</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366293</v>
+        <v>189.7466035210509</v>
       </c>
       <c r="N30" t="n">
-        <v>398.5719990406881</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>331.4139538013791</v>
+        <v>124.8420549921029</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>19.83962944132484</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
@@ -37400,10 +37402,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>60.02388433300664</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366293</v>
+        <v>189.7466035210507</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969023</v>
@@ -37637,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3391532330937</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>170.3630375661004</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38096,13 +38098,13 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366293</v>
+        <v>367.2438019934535</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38111,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
